--- a/biology/Médecine/Henri_Henrot/Henri_Henrot.xlsx
+++ b/biology/Médecine/Henri_Henrot/Henri_Henrot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Alfred Henrot (né à Reims le 22 mai 1838 et décédé à Paris le 25 février 1919), frère d’Alexandre Henrot, conseiller municipal depuis 1870, fut maire de Reims de 1884 à 1896.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de  Jean-Baptiste Henrot (1791-1868) et Euphrosine Leclerc (1795-1873}. Son père était un médecin qui avait fait les campagnes d'Allemagne et d'Espagne sous le Ier Empire et le frère d'Alexandre, médecin, conseiller municipal et socialiste rémois.
 Il a fait ses études à l'école de médecine de Reims, interne aux Hôpitaux de Paris. Il entra à l’Hôtel-Dieu de Reims comme prosecteur en 1859, chef des travaux anatomiques en 1867, professeur assistant en 1875 et titulaire en 1881. Il en fut directeur de 1896 à 1902. Il appartint au Conseil supérieur de l’Assistance publique au ministère de l’Intérieur et en fut le vice-président. Il mourut subitement en assistant à une de ses séances. Il épousa Nelly Marguerite Bonnaire (1850-1878) et repose au Cimetière du Sud. Leur fille épousa Émile Charbonneaux et leur fils Alexandre devint médecin. Il fut, comme son père, membre de l'Académie nationale de Reims.
-Le Docteur Henri Henrot rechercha les causes de l'épidémie de fièvre typhoïde qui sévit sur la brigade de cavalerie de Reims en septembre et octobre 1895[1]
+Le Docteur Henri Henrot rechercha les causes de l'épidémie de fièvre typhoïde qui sévit sur la brigade de cavalerie de Reims en septembre et octobre 1895
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Maire de Reims</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était conseiller municipal en août 1870 et fut emprisonné par les Allemands à la forteresse de Magdebourg. Adjoint de 1871 à 1884. Il fut destitué par l'Ordre moral avant de devenir maire.
 En 1925 la ville lui dédie le boulevard du Docteur-Henri-Henrot et le square Henrot.
@@ -576,7 +592,9 @@
           <t>Dans les journaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Menant le conseil municipal,
@@ -611,9 +629,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur
  Officier de l'Instruction publique
  Chevalier de l'ordre du Mérite agricole
  Commandeur Ordre du Nichan Iftikhar</t>
@@ -644,7 +664,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Annuaire de la guerre, Association amicale des anciens élèves du lycée de Reims,  impr. Matot-Braine (Reims), 1920 sur Gallica
 Les Dictionnaires Départementaux, Marne, dictionnaire biographique &amp; album, Flammarion, Néauber&amp;Cie, 1924, p. 417.
